--- a/natmiOut/OldD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +88,13 @@
     <t>Gpr19</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.882723273642992</v>
+        <v>0.06490366666666667</v>
       </c>
       <c r="H2">
-        <v>0.882723273642992</v>
+        <v>0.194711</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.06136164738679384</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08930259394015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8385782296752931</v>
+        <v>0.8390596666666665</v>
       </c>
       <c r="N2">
-        <v>0.8385782296752931</v>
+        <v>2.517179</v>
       </c>
       <c r="O2">
-        <v>0.1451456269239109</v>
+        <v>0.1167136235197069</v>
       </c>
       <c r="P2">
-        <v>0.1451456269239109</v>
+        <v>0.1350750968425476</v>
       </c>
       <c r="Q2">
-        <v>0.7402325201047195</v>
+        <v>0.05445804891877777</v>
       </c>
       <c r="R2">
-        <v>0.7402325201047195</v>
+        <v>0.4901224402689999</v>
       </c>
       <c r="S2">
-        <v>0.1451456269239109</v>
+        <v>0.007161740211651261</v>
       </c>
       <c r="T2">
-        <v>0.1451456269239109</v>
+        <v>0.01206255652475647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.882723273642992</v>
+        <v>0.06490366666666667</v>
       </c>
       <c r="H3">
-        <v>0.882723273642992</v>
+        <v>0.194711</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.06136164738679384</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08930259394015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.05228356919173</v>
+        <v>2.108604</v>
       </c>
       <c r="N3">
-        <v>2.05228356919173</v>
+        <v>6.325812</v>
       </c>
       <c r="O3">
-        <v>0.3552202701366546</v>
+        <v>0.29330788165023</v>
       </c>
       <c r="P3">
-        <v>0.3552202701366546</v>
+        <v>0.3394512938919918</v>
       </c>
       <c r="Q3">
-        <v>1.811598470640648</v>
+        <v>0.136856131148</v>
       </c>
       <c r="R3">
-        <v>1.811598470640648</v>
+        <v>1.231705180332</v>
       </c>
       <c r="S3">
-        <v>0.3552202701366546</v>
+        <v>0.01799785480958887</v>
       </c>
       <c r="T3">
-        <v>0.3552202701366546</v>
+        <v>0.03031388106089506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,495 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06490366666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.194711</v>
+      </c>
+      <c r="I4">
+        <v>0.06136164738679384</v>
+      </c>
+      <c r="J4">
+        <v>0.08930259394015</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.550399</v>
+      </c>
+      <c r="N4">
+        <v>1.651197</v>
+      </c>
+      <c r="O4">
+        <v>0.07656077895726504</v>
+      </c>
+      <c r="P4">
+        <v>0.08860537716273818</v>
+      </c>
+      <c r="Q4">
+        <v>0.03572291322966666</v>
+      </c>
+      <c r="R4">
+        <v>0.3215062190669999</v>
+      </c>
+      <c r="S4">
+        <v>0.004697895522033963</v>
+      </c>
+      <c r="T4">
+        <v>0.007912690017677849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06490366666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.194711</v>
+      </c>
+      <c r="I5">
+        <v>0.06136164738679384</v>
+      </c>
+      <c r="J5">
+        <v>0.08930259394015</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.7592483333333334</v>
+      </c>
+      <c r="N5">
+        <v>2.277745</v>
+      </c>
+      <c r="O5">
+        <v>0.1056118267329796</v>
+      </c>
+      <c r="P5">
+        <v>0.1222267571982877</v>
+      </c>
+      <c r="Q5">
+        <v>0.04927800074388889</v>
+      </c>
+      <c r="R5">
+        <v>0.4435020066950001</v>
+      </c>
+      <c r="S5">
+        <v>0.00648051567186426</v>
+      </c>
+      <c r="T5">
+        <v>0.0109151664667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06490366666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.194711</v>
+      </c>
+      <c r="I6">
+        <v>0.06136164738679384</v>
+      </c>
+      <c r="J6">
+        <v>0.08930259394015</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.9317355</v>
+      </c>
+      <c r="N6">
+        <v>5.863471000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4078058891398185</v>
+      </c>
+      <c r="P6">
+        <v>0.3146414749044346</v>
+      </c>
+      <c r="Q6">
+        <v>0.1902803836468333</v>
+      </c>
+      <c r="R6">
+        <v>1.141682301881</v>
+      </c>
+      <c r="S6">
+        <v>0.02502364117165548</v>
+      </c>
+      <c r="T6">
+        <v>0.02809829987012062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.882723273642992</v>
-      </c>
-      <c r="H4">
-        <v>0.882723273642992</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.8866338615079</v>
-      </c>
-      <c r="N4">
-        <v>2.8866338615079</v>
-      </c>
-      <c r="O4">
-        <v>0.4996341029394344</v>
-      </c>
-      <c r="P4">
-        <v>0.4996341029394344</v>
-      </c>
-      <c r="Q4">
-        <v>2.548098892038964</v>
-      </c>
-      <c r="R4">
-        <v>2.548098892038964</v>
-      </c>
-      <c r="S4">
-        <v>0.4996341029394344</v>
-      </c>
-      <c r="T4">
-        <v>0.4996341029394344</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.99282</v>
+      </c>
+      <c r="H7">
+        <v>1.98564</v>
+      </c>
+      <c r="I7">
+        <v>0.9386383526132062</v>
+      </c>
+      <c r="J7">
+        <v>0.9106974060598501</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8390596666666665</v>
+      </c>
+      <c r="N7">
+        <v>2.517179</v>
+      </c>
+      <c r="O7">
+        <v>0.1167136235197069</v>
+      </c>
+      <c r="P7">
+        <v>0.1350750968425476</v>
+      </c>
+      <c r="Q7">
+        <v>0.8330352182599999</v>
+      </c>
+      <c r="R7">
+        <v>4.998211309559999</v>
+      </c>
+      <c r="S7">
+        <v>0.1095518833080556</v>
+      </c>
+      <c r="T7">
+        <v>0.1230125403177912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.99282</v>
+      </c>
+      <c r="H8">
+        <v>1.98564</v>
+      </c>
+      <c r="I8">
+        <v>0.9386383526132062</v>
+      </c>
+      <c r="J8">
+        <v>0.9106974060598501</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.108604</v>
+      </c>
+      <c r="N8">
+        <v>6.325812</v>
+      </c>
+      <c r="O8">
+        <v>0.29330788165023</v>
+      </c>
+      <c r="P8">
+        <v>0.3394512938919918</v>
+      </c>
+      <c r="Q8">
+        <v>2.09346422328</v>
+      </c>
+      <c r="R8">
+        <v>12.56078533968</v>
+      </c>
+      <c r="S8">
+        <v>0.2753100268406411</v>
+      </c>
+      <c r="T8">
+        <v>0.3091374128310967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.99282</v>
+      </c>
+      <c r="H9">
+        <v>1.98564</v>
+      </c>
+      <c r="I9">
+        <v>0.9386383526132062</v>
+      </c>
+      <c r="J9">
+        <v>0.9106974060598501</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.550399</v>
+      </c>
+      <c r="N9">
+        <v>1.651197</v>
+      </c>
+      <c r="O9">
+        <v>0.07656077895726504</v>
+      </c>
+      <c r="P9">
+        <v>0.08860537716273818</v>
+      </c>
+      <c r="Q9">
+        <v>0.54644713518</v>
+      </c>
+      <c r="R9">
+        <v>3.27868281108</v>
+      </c>
+      <c r="S9">
+        <v>0.07186288343523108</v>
+      </c>
+      <c r="T9">
+        <v>0.08069268714506034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.99282</v>
+      </c>
+      <c r="H10">
+        <v>1.98564</v>
+      </c>
+      <c r="I10">
+        <v>0.9386383526132062</v>
+      </c>
+      <c r="J10">
+        <v>0.9106974060598501</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7592483333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.277745</v>
+      </c>
+      <c r="O10">
+        <v>0.1056118267329796</v>
+      </c>
+      <c r="P10">
+        <v>0.1222267571982877</v>
+      </c>
+      <c r="Q10">
+        <v>0.7537969303000001</v>
+      </c>
+      <c r="R10">
+        <v>4.522781581800001</v>
+      </c>
+      <c r="S10">
+        <v>0.09913131106111532</v>
+      </c>
+      <c r="T10">
+        <v>0.1113115907315878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.99282</v>
+      </c>
+      <c r="H11">
+        <v>1.98564</v>
+      </c>
+      <c r="I11">
+        <v>0.9386383526132062</v>
+      </c>
+      <c r="J11">
+        <v>0.9106974060598501</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.9317355</v>
+      </c>
+      <c r="N11">
+        <v>5.863471000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4078058891398185</v>
+      </c>
+      <c r="P11">
+        <v>0.3146414749044346</v>
+      </c>
+      <c r="Q11">
+        <v>2.91068563911</v>
+      </c>
+      <c r="R11">
+        <v>11.64274255644</v>
+      </c>
+      <c r="S11">
+        <v>0.382782247968163</v>
+      </c>
+      <c r="T11">
+        <v>0.286543175034314</v>
       </c>
     </row>
   </sheetData>
